--- a/PLANALTO.xlsx
+++ b/PLANALTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF785B8E-6142-407E-8265-0DF227557868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F6796D-5713-4901-BFF1-443D8F5C3CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1053,36 +1053,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1116,14 +1092,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,7 +1113,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1155,7 +1126,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BCE5E78-C4CE-469C-9496-0EDCC6D34BBF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4CDB0772-FDD7-471B-BCF4-3BC8E29977D1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,10 +1156,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD76C071-EB29-404E-B6F6-703BCF692CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973C7AE7-3747-4476-85D5-B86A44C078B0}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1197,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D16C696-49AD-4FD4-A864-363E8973E73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E6B798-3779-41B1-A273-42625E4E7286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1260,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B55A3A-2F87-4870-ACF6-C372108577D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F3AC3A-03F4-47CB-9248-5E5942E49C20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1279,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF8404B-8A0E-A97B-40AC-6C8DC75F37EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB4898C-94C0-C781-A7FA-A65EB0362D4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1357,7 +1328,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344D4A8E-AEF1-C71C-6FAE-4D96899C2F6C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5A5FB8-1BAF-3C8A-2DDF-0737A6F236E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1376,7 +1347,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928FFDFA-780C-BD3E-0621-FA66986B5D1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9568539C-10A2-B424-BB2B-3A17C63D8DD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1407,7 +1378,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314F6727-8210-877E-D8C1-AEDE529A88A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E287F3-31BA-77A9-53F9-956CDC0304C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1438,7 +1409,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8BFE5E-5885-AE34-8B9F-BE283557E9AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5604762D-95C7-1557-CD76-677DB01DFA23}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1452,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD38A1A5-CC5A-4A04-BA14-C88942196AEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40F9C58-FCD4-403A-B6C2-7EA96770274B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1490,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE94658-CA09-454F-BB67-5E7E5CA7E797}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C4B1E9-E1D5-48CE-A21E-54B23D38EBD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1533,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A480B640-509C-4F95-BBF3-9AD06D211FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CAF808-5160-4D27-9734-784549DCCA9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62760E9D-7901-4067-AA73-082B33EAF88B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E20FEF-008B-4882-9314-45B9849DAD15}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1887,98 +1858,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="30"/>
-    <col min="6" max="6" width="2" style="30" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="30"/>
+    <col min="1" max="5" width="12.5703125" style="27"/>
+    <col min="6" max="6" width="2" style="27" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="29"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="29"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="29"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="29"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="29"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="29"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="29"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="29"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="29"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="29"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="29"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="29"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="29"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="29"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="29"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="29"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="29"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="29"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="29"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="29"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="29"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="29"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="29"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="29"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="29"/>
+      <c r="F29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5125,19 +5096,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5160,46 +5131,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5224,99 +5195,100 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>45717</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>23031</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>1294</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="25" t="s">
         <v>282</v>
       </c>
     </row>

--- a/PLANALTO.xlsx
+++ b/PLANALTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F6796D-5713-4901-BFF1-443D8F5C3CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA4A6E8-FD05-4185-86B5-7392D42090D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4CDB0772-FDD7-471B-BCF4-3BC8E29977D1}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BBD1EF58-2EED-4654-925B-EBA8CEBECD48}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,10 +1156,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973C7AE7-3747-4476-85D5-B86A44C078B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778557D4-E247-4C38-A2AB-7C9FE0700E11}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E6B798-3779-41B1-A273-42625E4E7286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27156641-3FC8-4ED2-ABD7-4F53FFCDBE71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F3AC3A-03F4-47CB-9248-5E5942E49C20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3FB9F8-CF04-49C2-96A4-9EEE40CE20E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB4898C-94C0-C781-A7FA-A65EB0362D4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B2FB48-C50A-9E42-1BC4-342629589EAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5A5FB8-1BAF-3C8A-2DDF-0737A6F236E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6709CB33-5E9E-1F58-692C-6732AC0A1793}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9568539C-10A2-B424-BB2B-3A17C63D8DD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56CF431-2265-367F-BCCB-43A1D6CCD741}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E287F3-31BA-77A9-53F9-956CDC0304C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B3CA78-E633-F306-E884-818388E17100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5604762D-95C7-1557-CD76-677DB01DFA23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9E2B21-6AEA-D3FF-F714-A84734502151}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40F9C58-FCD4-403A-B6C2-7EA96770274B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78827CFA-BA07-44CE-A79A-09BA201F5EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C4B1E9-E1D5-48CE-A21E-54B23D38EBD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1367832-118E-4345-A9FB-718038AE7860}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CAF808-5160-4D27-9734-784549DCCA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C782A75-673D-4A92-BE20-865AC0074232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E20FEF-008B-4882-9314-45B9849DAD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEA0E16-7BE9-4BF8-9153-79581A08410F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PLANALTO.xlsx
+++ b/PLANALTO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA4A6E8-FD05-4185-86B5-7392D42090D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD177B1-925A-45A4-B272-03FA954F7A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="5" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1126,7 +1126,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{BBD1EF58-2EED-4654-925B-EBA8CEBECD48}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8D8EACEA-C78C-40F8-91FF-C8528C66659D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,10 +1156,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778557D4-E247-4C38-A2AB-7C9FE0700E11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B66A142-82DA-489A-BAA2-8A59D3A06C1E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27156641-3FC8-4ED2-ABD7-4F53FFCDBE71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B3C2C0-767A-403A-B6CE-9EFEC98EDD7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3FB9F8-CF04-49C2-96A4-9EEE40CE20E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644A6320-4A36-4DCC-BF9E-01919638F4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B2FB48-C50A-9E42-1BC4-342629589EAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83944179-C4AD-48DB-6FB2-11CA72C736E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6709CB33-5E9E-1F58-692C-6732AC0A1793}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B32B877-DCDF-A21B-5DCB-6150A48AB1A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56CF431-2265-367F-BCCB-43A1D6CCD741}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D85CB8B-2050-71B7-988E-D319EBC5055F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B3CA78-E633-F306-E884-818388E17100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214AE6D4-93FF-2740-A403-8C1B7CDA4A13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9E2B21-6AEA-D3FF-F714-A84734502151}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89557F-AED0-86F7-6576-0E7B77B8434B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78827CFA-BA07-44CE-A79A-09BA201F5EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D8C218-B3DA-42F4-BB44-548A8CEB344D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1367832-118E-4345-A9FB-718038AE7860}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F05E296-4DF5-4360-A8BA-F6D395F8A397}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C782A75-673D-4A92-BE20-865AC0074232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6442989A-54E8-4A5D-AE81-3D757610E006}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEA0E16-7BE9-4BF8-9153-79581A08410F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818B7D46-DC6E-4EA9-8762-818A492657F2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PLANALTO.xlsx
+++ b/PLANALTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD177B1-925A-45A4-B272-03FA954F7A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C9EB95-2168-4392-BEE2-4DB468AF17B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8D8EACEA-C78C-40F8-91FF-C8528C66659D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1BBD13EB-1AFB-44FC-8503-7DA83A38FFFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,10 +1156,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B66A142-82DA-489A-BAA2-8A59D3A06C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB10FFB1-5F4C-44B6-8D7B-EF97C00D605A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B3C2C0-767A-403A-B6CE-9EFEC98EDD7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021DC93B-3447-417E-89C4-73295AF6FEF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644A6320-4A36-4DCC-BF9E-01919638F4D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D874DC78-050E-48C0-ACED-4D6B939F8FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83944179-C4AD-48DB-6FB2-11CA72C736E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA94BDB3-185A-01CE-6438-C33309CF066E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B32B877-DCDF-A21B-5DCB-6150A48AB1A4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED38DDD0-C0C5-1114-F41F-0FFFC54A8659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D85CB8B-2050-71B7-988E-D319EBC5055F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0C50BC-EF51-E18C-4A14-BE4D2AA1367F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214AE6D4-93FF-2740-A403-8C1B7CDA4A13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDF870E-0738-BBC4-714F-B767156840CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89557F-AED0-86F7-6576-0E7B77B8434B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41989B59-034B-6A11-2C11-CA3478C9B69C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D8C218-B3DA-42F4-BB44-548A8CEB344D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC8DFF7-15D1-4837-8D2A-5EFE5A4F4C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F05E296-4DF5-4360-A8BA-F6D395F8A397}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E5D0F2-B735-4E40-9FB8-C45BFE6DC839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,50 +1515,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6442989A-54E8-4A5D-AE81-3D757610E006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1846,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818B7D46-DC6E-4EA9-8762-818A492657F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DCECEE-0D32-4F33-A7B7-5CB98E86E91C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PLANALTO.xlsx
+++ b/PLANALTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C9EB95-2168-4392-BEE2-4DB468AF17B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DC52AE-9D8F-45D5-8A69-398FFDAF9B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,14 +885,6 @@
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -920,6 +912,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1005,21 +1005,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1053,6 +1038,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1060,73 +1060,73 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1BBD13EB-1AFB-44FC-8503-7DA83A38FFFC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0B45F8D0-0126-40F6-ADD2-947BCDF9CB8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,7 +1156,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB10FFB1-5F4C-44B6-8D7B-EF97C00D605A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDCE301-6FDE-42B4-BAD0-12394F17F8D9}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021DC93B-3447-417E-89C4-73295AF6FEF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1BD413-A03E-4E22-865A-F6C3716E38C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D874DC78-050E-48C0-ACED-4D6B939F8FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D75AEB-C5FF-4CB8-9A46-DC5265D161FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA94BDB3-185A-01CE-6438-C33309CF066E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9C0FC2-08BD-A930-E8D8-1DC55BEE9D33}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED38DDD0-C0C5-1114-F41F-0FFFC54A8659}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3AA7A5-A956-4F59-11CE-305C503CFE6C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0C50BC-EF51-E18C-4A14-BE4D2AA1367F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DA8B51-8420-179F-5B46-6F21AFCBBB51}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDF870E-0738-BBC4-714F-B767156840CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2285941B-5331-E50D-1F51-CC522349D114}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41989B59-034B-6A11-2C11-CA3478C9B69C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F50709-DC82-EA03-B660-0E739AD250CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC8DFF7-15D1-4837-8D2A-5EFE5A4F4C54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4056CEB-6415-480C-9390-7E3E748A60CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E5D0F2-B735-4E40-9FB8-C45BFE6DC839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859FBCA1-0771-4B08-BE0D-6B24DB56954B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DCECEE-0D32-4F33-A7B7-5CB98E86E91C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4C6FD1-8D2B-47A2-BECB-E5E0FABF7414}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
